--- a/Multiknapsack/results/fixed_recourse/singlecut/M50_N100_T0_a25_ccg.xlsx
+++ b/Multiknapsack/results/fixed_recourse/singlecut/M50_N100_T0_a25_ccg.xlsx
@@ -471,28 +471,28 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-406.6470855097974</v>
+        <v>-274.9655817221359</v>
       </c>
       <c r="C2">
-        <v>9.136172054</v>
+        <v>9.011785872</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>652</v>
+        <v>1204</v>
       </c>
       <c r="H2">
-        <v>605</v>
+        <v>1210</v>
       </c>
       <c r="I2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -500,28 +500,28 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-408.47796953931436</v>
+        <v>-273.98162258884673</v>
       </c>
       <c r="C3">
-        <v>0.112009604</v>
+        <v>5.336540295</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>652</v>
+        <v>2860</v>
       </c>
       <c r="H3">
-        <v>605</v>
+        <v>3025</v>
       </c>
       <c r="I3">
-        <v>50</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -529,28 +529,28 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-407.3725385859316</v>
+        <v>-274.08960459636427</v>
       </c>
       <c r="C4">
-        <v>0.125098928</v>
+        <v>6.191085257</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>652</v>
+        <v>3412</v>
       </c>
       <c r="H4">
-        <v>605</v>
+        <v>3630</v>
       </c>
       <c r="I4">
-        <v>50</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -558,28 +558,28 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-412.28278434469985</v>
+        <v>-276.8685515416252</v>
       </c>
       <c r="C5">
-        <v>0.130899705</v>
+        <v>4.272633059</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>652</v>
+        <v>2308</v>
       </c>
       <c r="H5">
-        <v>605</v>
+        <v>2420</v>
       </c>
       <c r="I5">
-        <v>50</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -587,28 +587,28 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-404.37976411804567</v>
+        <v>-272.1653938311721</v>
       </c>
       <c r="C6">
-        <v>0.11751164</v>
+        <v>12.95195401</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>652</v>
+        <v>3964</v>
       </c>
       <c r="H6">
-        <v>605</v>
+        <v>4235</v>
       </c>
       <c r="I6">
-        <v>50</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -616,28 +616,28 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-401.4006324234201</v>
+        <v>-268.97221187709164</v>
       </c>
       <c r="C7">
-        <v>0.114257208</v>
+        <v>3.384116984</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>652</v>
+        <v>1756</v>
       </c>
       <c r="H7">
-        <v>605</v>
+        <v>1815</v>
       </c>
       <c r="I7">
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -645,10 +645,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-396.3815796199425</v>
+        <v>-265.42815137347486</v>
       </c>
       <c r="C8">
-        <v>0.142216397</v>
+        <v>2.785066582</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -674,28 +674,28 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-408.43290615215943</v>
+        <v>-274.20170847509786</v>
       </c>
       <c r="C9">
-        <v>0.128092632</v>
+        <v>1.601040059</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>652</v>
+        <v>1204</v>
       </c>
       <c r="H9">
-        <v>605</v>
+        <v>1210</v>
       </c>
       <c r="I9">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -703,28 +703,28 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-402.82378064604393</v>
+        <v>-271.53604073578464</v>
       </c>
       <c r="C10">
-        <v>0.164432034</v>
+        <v>10.289141947</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>652</v>
+        <v>3412</v>
       </c>
       <c r="H10">
-        <v>605</v>
+        <v>3630</v>
       </c>
       <c r="I10">
-        <v>50</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -732,28 +732,28 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-399.37293214234796</v>
+        <v>-268.78676349663795</v>
       </c>
       <c r="C11">
-        <v>0.134708718</v>
+        <v>1.26981565</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>652</v>
+        <v>1204</v>
       </c>
       <c r="H11">
-        <v>605</v>
+        <v>1210</v>
       </c>
       <c r="I11">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -763,7 +763,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -797,10 +797,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.03395005713964844</v>
+        <v>0.03476508155932617</v>
       </c>
       <c r="E2">
-        <v>41.23172</v>
+        <v>68.71954</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -808,15 +808,100 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-402.82378064604393</v>
+        <v>-306.4514620630372</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.007815128475927568</v>
       </c>
       <c r="D3">
-        <v>0.07117957144128417</v>
+        <v>0.20442813810375976</v>
       </c>
       <c r="E3">
+        <v>4.76064</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-282.48717157721865</v>
+      </c>
+      <c r="C4">
+        <v>0.07148866119377287</v>
+      </c>
+      <c r="D4">
+        <v>1.8136089265018311</v>
+      </c>
+      <c r="E4">
+        <v>2.74184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-278.1525706316617</v>
+      </c>
+      <c r="C5">
+        <v>0.06081703560710542</v>
+      </c>
+      <c r="D5">
+        <v>0.7090817878721923</v>
+      </c>
+      <c r="E5">
+        <v>2.11724</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-271.91021281294024</v>
+      </c>
+      <c r="C6">
+        <v>0.056022989450732835</v>
+      </c>
+      <c r="D6">
+        <v>1.4961259629753418</v>
+      </c>
+      <c r="E6">
+        <v>1.21104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-271.7016546746654</v>
+      </c>
+      <c r="C7">
+        <v>0.09421008177945533</v>
+      </c>
+      <c r="D7">
+        <v>1.1751505290085449</v>
+      </c>
+      <c r="E7">
+        <v>0.58733</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-271.53604073578464</v>
+      </c>
+      <c r="C8">
+        <v>0.04646653013628087</v>
+      </c>
+      <c r="D8">
+        <v>4.251964533084473</v>
+      </c>
+      <c r="E8">
         <v>0.0</v>
       </c>
     </row>
@@ -827,7 +912,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -861,10 +946,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.02747002653100586</v>
+        <v>0.04656382242932129</v>
       </c>
       <c r="E2">
-        <v>42.19128</v>
+        <v>70.3188</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -872,15 +957,32 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-399.37293214234796</v>
+        <v>-269.5948197888032</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.04513460300575083</v>
       </c>
       <c r="D3">
-        <v>0.0436512513659668</v>
+        <v>0.29674409279577635</v>
       </c>
       <c r="E3">
+        <v>1.35491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-268.78676349663795</v>
+      </c>
+      <c r="C4">
+        <v>0.09542947205193089</v>
+      </c>
+      <c r="D4">
+        <v>0.7397491460584716</v>
+      </c>
+      <c r="E4">
         <v>0.0</v>
       </c>
     </row>
@@ -891,7 +993,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -925,10 +1027,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.8391668508085938</v>
+        <v>0.8459882274916992</v>
       </c>
       <c r="E2">
-        <v>42.46467</v>
+        <v>70.77445</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -936,15 +1038,32 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-406.6470855097974</v>
+        <v>-275.37819416649336</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.08776712157840491</v>
       </c>
       <c r="D3">
-        <v>0.11879140248327637</v>
+        <v>0.1868246894711914</v>
       </c>
       <c r="E3">
+        <v>0.93488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-274.9655817221359</v>
+      </c>
+      <c r="C4">
+        <v>0.08770811021198437</v>
+      </c>
+      <c r="D4">
+        <v>0.42188376053234866</v>
+      </c>
+      <c r="E4">
         <v>0.0</v>
       </c>
     </row>
@@ -955,7 +1074,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -989,10 +1108,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.013843683834838867</v>
+        <v>0.043430891670776364</v>
       </c>
       <c r="E2">
-        <v>40.98647</v>
+        <v>68.31078</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1000,15 +1119,83 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-408.47796953931436</v>
+        <v>-282.5400242680931</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.09620453204212696</v>
       </c>
       <c r="D3">
-        <v>0.04959573479321289</v>
+        <v>0.5297453552442627</v>
       </c>
       <c r="E3">
+        <v>2.03306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-279.9858049039651</v>
+      </c>
+      <c r="C4">
+        <v>0.026970352815420248</v>
+      </c>
+      <c r="D4">
+        <v>0.77098059350708</v>
+      </c>
+      <c r="E4">
+        <v>2.06672</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-276.7415271190988</v>
+      </c>
+      <c r="C5">
+        <v>0.09205844327296142</v>
+      </c>
+      <c r="D5">
+        <v>0.8785558021623535</v>
+      </c>
+      <c r="E5">
+        <v>1.71613</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-274.93974763381715</v>
+      </c>
+      <c r="C6">
+        <v>0.0800621075189235</v>
+      </c>
+      <c r="D6">
+        <v>1.0210462858820801</v>
+      </c>
+      <c r="E6">
+        <v>1.03583</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-273.98162258884673</v>
+      </c>
+      <c r="C7">
+        <v>0.08373334482089792</v>
+      </c>
+      <c r="D7">
+        <v>1.6440672093690185</v>
+      </c>
+      <c r="E7">
         <v>0.0</v>
       </c>
     </row>
@@ -1019,7 +1206,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -1053,10 +1240,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.027977212634765623</v>
+        <v>0.019674989152832032</v>
       </c>
       <c r="E2">
-        <v>43.22165</v>
+        <v>72.03609</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1064,15 +1251,100 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-407.3725385859316</v>
+        <v>-284.93216461805935</v>
       </c>
       <c r="C3">
-        <v>1.3953669792791754e-14</v>
+        <v>0.06856170788369287</v>
       </c>
       <c r="D3">
-        <v>0.048315414313598634</v>
+        <v>0.3585616605776367</v>
       </c>
       <c r="E3">
+        <v>2.6296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-281.02342668428673</v>
+      </c>
+      <c r="C4">
+        <v>0.014996801358430454</v>
+      </c>
+      <c r="D4">
+        <v>0.5283823002906494</v>
+      </c>
+      <c r="E4">
+        <v>1.78881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-275.8641653669497</v>
+      </c>
+      <c r="C5">
+        <v>0.0975185014249835</v>
+      </c>
+      <c r="D5">
+        <v>0.7497194855341797</v>
+      </c>
+      <c r="E5">
+        <v>1.34265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-274.76650879323324</v>
+      </c>
+      <c r="C6">
+        <v>0.0</v>
+      </c>
+      <c r="D6">
+        <v>1.1823969776972656</v>
+      </c>
+      <c r="E6">
+        <v>0.68833</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-274.1144998692482</v>
+      </c>
+      <c r="C7">
+        <v>0.052653302771760724</v>
+      </c>
+      <c r="D7">
+        <v>1.0471213507736816</v>
+      </c>
+      <c r="E7">
+        <v>0.20688</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-274.08960459636427</v>
+      </c>
+      <c r="C8">
+        <v>0.07708650067600377</v>
+      </c>
+      <c r="D8">
+        <v>1.7273631935544433</v>
+      </c>
+      <c r="E8">
         <v>0.0</v>
       </c>
     </row>
@@ -1083,7 +1355,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -1117,10 +1389,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.019736862688354492</v>
+        <v>0.03315735772436523</v>
       </c>
       <c r="E2">
-        <v>42.77937</v>
+        <v>71.29895</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1128,15 +1400,66 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-412.28278434469985</v>
+        <v>-278.300849315347</v>
       </c>
       <c r="C3">
-        <v>2.7574966027816865e-14</v>
+        <v>0.09910138944675462</v>
       </c>
       <c r="D3">
-        <v>0.055910602322753904</v>
+        <v>0.5236881781154785</v>
       </c>
       <c r="E3">
+        <v>2.02028</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-277.44746019600944</v>
+      </c>
+      <c r="C4">
+        <v>0.09324511586117006</v>
+      </c>
+      <c r="D4">
+        <v>0.8548955550218506</v>
+      </c>
+      <c r="E4">
+        <v>1.24061</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-276.95668727849005</v>
+      </c>
+      <c r="C5">
+        <v>0.09548483959325342</v>
+      </c>
+      <c r="D5">
+        <v>1.029056386616333</v>
+      </c>
+      <c r="E5">
+        <v>0.59438</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-276.8685515416252</v>
+      </c>
+      <c r="C6">
+        <v>0.0982522559478422</v>
+      </c>
+      <c r="D6">
+        <v>1.4925861974378662</v>
+      </c>
+      <c r="E6">
         <v>0.0</v>
       </c>
     </row>
@@ -1147,7 +1470,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -1181,10 +1504,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.02585521537145996</v>
+        <v>0.05066696337133789</v>
       </c>
       <c r="E2">
-        <v>42.30454</v>
+        <v>70.50756</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1192,15 +1515,117 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-404.37976411804567</v>
+        <v>-321.98521738903344</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.05901927250361406</v>
       </c>
       <c r="D3">
-        <v>0.045792586182006836</v>
+        <v>0.11446679339587403</v>
       </c>
       <c r="E3">
+        <v>5.48806</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-297.0793900691263</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>0.7611371963791503</v>
+      </c>
+      <c r="E4">
+        <v>3.9308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-282.40881917382546</v>
+      </c>
+      <c r="C5">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>0.985951380078003</v>
+      </c>
+      <c r="E5">
+        <v>2.64459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-277.1180357760685</v>
+      </c>
+      <c r="C6">
+        <v>0.08381775144543133</v>
+      </c>
+      <c r="D6">
+        <v>0.9481974394178467</v>
+      </c>
+      <c r="E6">
+        <v>1.93829</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-273.1943884633127</v>
+      </c>
+      <c r="C7">
+        <v>0.07907803844069364</v>
+      </c>
+      <c r="D7">
+        <v>0.9899204675969239</v>
+      </c>
+      <c r="E7">
+        <v>0.91228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-272.5171413614702</v>
+      </c>
+      <c r="C8">
+        <v>0.08563083692252649</v>
+      </c>
+      <c r="D8">
+        <v>1.3552736605531006</v>
+      </c>
+      <c r="E8">
+        <v>0.43816</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>-272.1653938311721</v>
+      </c>
+      <c r="C9">
+        <v>0.07516289901403857</v>
+      </c>
+      <c r="D9">
+        <v>6.999897805318115</v>
+      </c>
+      <c r="E9">
         <v>0.0</v>
       </c>
     </row>
@@ -1211,7 +1636,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -1245,10 +1670,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.01383443599987793</v>
+        <v>0.03487423657678223</v>
       </c>
       <c r="E2">
-        <v>44.90904</v>
+        <v>74.8484</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1256,15 +1681,49 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-401.4006324234201</v>
+        <v>-272.4220398086923</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.002229114480537501</v>
       </c>
       <c r="D3">
-        <v>0.04059968991650391</v>
+        <v>0.8938715389545898</v>
       </c>
       <c r="E3">
+        <v>1.64852</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-268.9931632473488</v>
+      </c>
+      <c r="C4">
+        <v>0.09418428710681696</v>
+      </c>
+      <c r="D4">
+        <v>1.2094037405688476</v>
+      </c>
+      <c r="E4">
+        <v>0.24472</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-268.97221187709164</v>
+      </c>
+      <c r="C5">
+        <v>0.09712584067328685</v>
+      </c>
+      <c r="D5">
+        <v>0.9518760947789306</v>
+      </c>
+      <c r="E5">
         <v>0.0</v>
       </c>
     </row>
@@ -1309,10 +1768,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.01682280853210449</v>
+        <v>0.045845211184448245</v>
       </c>
       <c r="E2">
-        <v>41.76083</v>
+        <v>69.60139</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1320,13 +1779,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-396.3815796199425</v>
+        <v>-265.42815137347486</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.002468932748980447</v>
       </c>
       <c r="D3">
-        <v>0.057848069759277344</v>
+        <v>2.637062962984253</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1339,7 +1798,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -1373,10 +1832,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.02708430099987793</v>
+        <v>0.052811610353881835</v>
       </c>
       <c r="E2">
-        <v>42.63802</v>
+        <v>71.06337</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1384,15 +1843,32 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-408.43290615215943</v>
+        <v>-274.9067546246747</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.009771497210873632</v>
       </c>
       <c r="D3">
-        <v>0.04395942288232422</v>
+        <v>0.20051590111315917</v>
       </c>
       <c r="E3">
+        <v>1.14379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-274.20170847509786</v>
+      </c>
+      <c r="C4">
+        <v>0.09846319087907521</v>
+      </c>
+      <c r="D4">
+        <v>1.1591712983615723</v>
+      </c>
+      <c r="E4">
         <v>0.0</v>
       </c>
     </row>
